--- a/outputs-HGR-r202/g__CAG-194.xlsx
+++ b/outputs-HGR-r202/g__CAG-194.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,6 +455,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -473,6 +478,11 @@
           <t>s__CAG-194 sp000432915</t>
         </is>
       </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>s__CAG-194 sp000432915</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -491,6 +501,11 @@
           <t>s__CAG-194 sp000432915</t>
         </is>
       </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>s__CAG-194 sp000432915</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -509,6 +524,11 @@
           <t>s__CAG-194 sp000432915</t>
         </is>
       </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>s__CAG-194 sp000432915</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -527,6 +547,11 @@
           <t>s__CAG-194 sp000432915</t>
         </is>
       </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>s__CAG-194 sp000432915</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -545,6 +570,11 @@
           <t>s__CAG-194 sp000432915</t>
         </is>
       </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>s__CAG-194 sp000432915</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -563,6 +593,11 @@
           <t>s__CAG-194 sp000432915</t>
         </is>
       </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>s__CAG-194 sp000432915</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -581,6 +616,11 @@
           <t>s__CAG-194 sp000432915</t>
         </is>
       </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>s__CAG-194 sp000432915</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -599,6 +639,11 @@
           <t>s__CAG-194 sp000432915</t>
         </is>
       </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>s__CAG-194 sp000432915</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -617,6 +662,11 @@
           <t>s__CAG-194 sp000432915</t>
         </is>
       </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>s__CAG-194 sp000432915</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -635,6 +685,11 @@
           <t>s__CAG-194 sp000432915</t>
         </is>
       </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>s__CAG-194 sp000432915</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -653,6 +708,11 @@
           <t>s__CAG-194 sp000432915</t>
         </is>
       </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>s__CAG-194 sp000432915</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -671,6 +731,11 @@
           <t>s__CAG-194 sp000432915</t>
         </is>
       </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>s__CAG-194 sp000432915</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -689,6 +754,11 @@
           <t>s__CAG-194 sp000432915</t>
         </is>
       </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>s__CAG-194 sp000432915</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -707,6 +777,11 @@
           <t>s__CAG-194 sp000432915</t>
         </is>
       </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>s__CAG-194 sp000432915</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -725,6 +800,11 @@
           <t>s__CAG-194 sp000432915</t>
         </is>
       </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>s__CAG-194 sp000432915</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -743,6 +823,11 @@
           <t>s__CAG-194 sp000432915</t>
         </is>
       </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>s__CAG-194 sp000432915</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -761,6 +846,11 @@
           <t>s__CAG-194 sp000432915</t>
         </is>
       </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>s__CAG-194 sp000432915</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -775,6 +865,11 @@
         <v>1</v>
       </c>
       <c r="D19" t="inlineStr">
+        <is>
+          <t>s__CAG-194 sp000432915</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
         <is>
           <t>s__CAG-194 sp000432915</t>
         </is>

--- a/outputs-HGR-r202/g__CAG-194.xlsx
+++ b/outputs-HGR-r202/g__CAG-194.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,15 +447,10 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>max</t>
+          <t>prediction</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>prediction</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>rejection-f</t>
         </is>
@@ -464,414 +459,100 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT15223.fa</t>
+          <t>even_MAG-GUT25847.fa</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
+        <v>-0.9266364983111295</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>s__CAG-194 sp000432915</t>
+        </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>s__CAG-194 sp000432915</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>s__CAG-194 sp000432915</t>
+          <t>s__CAG-194 sp000432915(reject)</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT16481.fa</t>
+          <t>even_MAG-GUT32882.fa</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
+        <v>-0.4193311360613556</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>s__CAG-194 sp000432915</t>
+        </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>s__CAG-194 sp000432915</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>s__CAG-194 sp000432915</t>
+          <t>s__CAG-194 sp000432915(reject)</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT21377.fa</t>
+          <t>even_MAG-GUT36916.fa</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
+        <v>-0.7860503379669908</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>s__CAG-194 sp000432915</t>
+        </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>s__CAG-194 sp000432915</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>s__CAG-194 sp000432915</t>
+          <t>s__CAG-194 sp000432915(reject)</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT25847.fa</t>
+          <t>even_MAG-GUT41020.fa</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
+        <v>-0.5625764959783019</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>s__CAG-194 sp000432915</t>
+        </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>s__CAG-194 sp000432915</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>s__CAG-194 sp000432915</t>
+          <t>s__CAG-194 sp000432915(reject)</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT32882.fa</t>
+          <t>even_MAG-GUT74962.fa</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
+        <v>-0.7366765151274741</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>s__CAG-194 sp000432915</t>
+        </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>s__CAG-194 sp000432915</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>s__CAG-194 sp000432915</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT36916.fa</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>s__CAG-194 sp000432915</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>s__CAG-194 sp000432915</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT39565.fa</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>s__CAG-194 sp000432915</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>s__CAG-194 sp000432915</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT41020.fa</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>s__CAG-194 sp000432915</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>s__CAG-194 sp000432915</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT41911.fa</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>1</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>s__CAG-194 sp000432915</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>s__CAG-194 sp000432915</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT61128.fa</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>1</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>s__CAG-194 sp000432915</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>s__CAG-194 sp000432915</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT61164.fa</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>s__CAG-194 sp000432915</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>s__CAG-194 sp000432915</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT71686.fa</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>1</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>s__CAG-194 sp000432915</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>s__CAG-194 sp000432915</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT72020.fa</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>1</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>s__CAG-194 sp000432915</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>s__CAG-194 sp000432915</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT74962.fa</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>1</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>s__CAG-194 sp000432915</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>s__CAG-194 sp000432915</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT76584.fa</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>1</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>s__CAG-194 sp000432915</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>s__CAG-194 sp000432915</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT81392.fa</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>1</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>s__CAG-194 sp000432915</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>s__CAG-194 sp000432915</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT81434.fa</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>1</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1</v>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>s__CAG-194 sp000432915</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>s__CAG-194 sp000432915</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT82836.fa</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>1</v>
-      </c>
-      <c r="C19" t="n">
-        <v>1</v>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>s__CAG-194 sp000432915</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>s__CAG-194 sp000432915</t>
+          <t>s__CAG-194 sp000432915(reject)</t>
         </is>
       </c>
     </row>

--- a/outputs-HGR-r202/g__CAG-194.xlsx
+++ b/outputs-HGR-r202/g__CAG-194.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -539,18 +539,38 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
+          <t>even_MAG-GUT72020.fa</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>-0.8909409175172307</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>s__CAG-194 sp000432915</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>s__CAG-194 sp000432915(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
           <t>even_MAG-GUT74962.fa</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="B7" t="n">
         <v>-0.7366765151274741</v>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>s__CAG-194 sp000432915</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>s__CAG-194 sp000432915(reject)</t>
         </is>
